--- a/UserStudy/TaskScores.xlsx
+++ b/UserStudy/TaskScores.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="0" windowWidth="33080" windowHeight="20560" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="2080" yWindow="2440" windowWidth="31980" windowHeight="12640" tabRatio="500" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Task_Prelim" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="171">
   <si>
     <t>Interface</t>
   </si>
@@ -1048,8 +1048,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1191,19 +1223,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1258,7 +1322,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1481,11 +1544,11 @@
         </c:dLbls>
         <c:gapWidth val="300"/>
         <c:overlap val="100"/>
-        <c:axId val="-2142625224"/>
-        <c:axId val="-2142622104"/>
+        <c:axId val="-2083561976"/>
+        <c:axId val="-2078308056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142625224"/>
+        <c:axId val="-2083561976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,7 +1557,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142622104"/>
+        <c:crossAx val="-2078308056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1502,7 +1565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142622104"/>
+        <c:axId val="-2078308056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140.0"/>
@@ -1520,7 +1583,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142625224"/>
+        <c:crossAx val="-2083561976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -1591,7 +1654,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1814,11 +1876,11 @@
         </c:dLbls>
         <c:gapWidth val="300"/>
         <c:overlap val="100"/>
-        <c:axId val="-2142582520"/>
-        <c:axId val="-2142579400"/>
+        <c:axId val="2066119880"/>
+        <c:axId val="-2084057640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142582520"/>
+        <c:axId val="2066119880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,7 +1889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142579400"/>
+        <c:crossAx val="-2084057640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1835,7 +1897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142579400"/>
+        <c:axId val="-2084057640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140.0"/>
@@ -1853,7 +1915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142582520"/>
+        <c:crossAx val="2066119880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -1924,7 +1986,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2149,11 +2210,11 @@
         </c:dLbls>
         <c:gapWidth val="300"/>
         <c:overlap val="100"/>
-        <c:axId val="-2142540888"/>
-        <c:axId val="-2142537768"/>
+        <c:axId val="-2079787448"/>
+        <c:axId val="-2079082648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142540888"/>
+        <c:axId val="-2079787448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,7 +2223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142537768"/>
+        <c:crossAx val="-2079082648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2170,7 +2231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142537768"/>
+        <c:axId val="-2079082648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200.0"/>
@@ -2188,7 +2249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142540888"/>
+        <c:crossAx val="-2079787448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -2271,12 +2332,12 @@
           <c:invertIfNegative val="1"/>
           <c:val>
             <c:numRef>
-              <c:f>'Comprehension Task'!$O$8</c:f>
+              <c:f>'Comprehension Task'!$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.906687303288377</c:v>
+                  <c:v>0.930015477466282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2315,12 +2376,12 @@
           <c:invertIfNegative val="1"/>
           <c:val>
             <c:numRef>
-              <c:f>'Comprehension Task'!$P$8</c:f>
+              <c:f>'Comprehension Task'!$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.736593720472544</c:v>
+                  <c:v>0.78192857302918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2359,12 +2420,12 @@
           <c:invertIfNegative val="1"/>
           <c:val>
             <c:numRef>
-              <c:f>'Comprehension Task'!$Q$8</c:f>
+              <c:f>'Comprehension Task'!$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.739329112289452</c:v>
+                  <c:v>0.777521150326512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2390,11 +2451,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2142493432"/>
-        <c:axId val="-2142490920"/>
+        <c:axId val="-2080212120"/>
+        <c:axId val="-2076984584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142493432"/>
+        <c:axId val="-2080212120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,7 +2474,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142490920"/>
+        <c:crossAx val="-2076984584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2421,7 +2482,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142490920"/>
+        <c:axId val="-2076984584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2476,7 +2537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142493432"/>
+        <c:crossAx val="-2080212120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2601,16 +2662,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1101725</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>949325</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19927,7 +19988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -28508,9 +28569,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -28992,68 +29053,59 @@
       <c r="Z7" s="18"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="87">
-        <f>AVERAGE(C2:C7)</f>
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="D8" s="87">
-        <f>AVERAGE(D2:D7)</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="E8" s="87">
-        <f>AVERAGE(E2:E7)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="87">
-        <f>AVERAGE(F2:F7)</f>
-        <v>0.40000000000000008</v>
-      </c>
-      <c r="G8" s="87">
-        <f>AVERAGE(G2:G7)</f>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="H8" s="87">
-        <f>AVERAGE(H2:H7)</f>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="I8" s="87">
-        <f>AVERAGE(I2:I7)</f>
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="J8" s="87">
-        <f>AVERAGE(J2:J7)</f>
-        <v>0.76666666666666672</v>
-      </c>
-      <c r="K8" s="87">
-        <f>AVERAGE(K2:K7)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L8" s="87">
-        <f>AVERAGE(L2:L7)</f>
-        <v>232.33333333333334</v>
-      </c>
-      <c r="M8" s="87">
-        <f>AVERAGE(M2:M7)</f>
-        <v>234.16666666666666</v>
-      </c>
-      <c r="N8" s="87">
-        <f>AVERAGE(N2:N7)</f>
-        <v>206.16666666666666</v>
-      </c>
-      <c r="O8" s="87">
-        <f>AVERAGE(O2:O7)</f>
-        <v>0.90668730328837654</v>
-      </c>
-      <c r="P8" s="10">
-        <f>AVERAGE(P2:P7)</f>
-        <v>0.73659372047254434</v>
-      </c>
-      <c r="Q8" s="10">
-        <f>AVERAGE(Q2:Q7)</f>
-        <v>0.73932911228945219</v>
+      <c r="A8" s="57">
+        <v>42139.583333333336</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L8" s="1">
+        <v>90</v>
+      </c>
+      <c r="M8" s="1">
+        <v>33</v>
+      </c>
+      <c r="N8" s="1">
+        <v>62</v>
+      </c>
+      <c r="O8" s="61">
+        <f t="shared" ref="O8:Q8" si="6">900/900</f>
+        <v>1</v>
+      </c>
+      <c r="P8" s="61">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="61">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
@@ -29065,60 +29117,134 @@
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
     </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A9" s="57">
+        <v>42139.385416666664</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>260</v>
+      </c>
+      <c r="M9" s="1">
+        <v>215</v>
+      </c>
+      <c r="N9" s="1">
+        <v>412</v>
+      </c>
+      <c r="O9" s="61">
+        <f>658/658</f>
+        <v>1</v>
+      </c>
+      <c r="P9" s="61">
+        <f>550/658</f>
+        <v>0.83586626139817632</v>
+      </c>
+      <c r="Q9" s="61">
+        <f>516/658</f>
+        <v>0.78419452887537999</v>
+      </c>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+    </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="57">
-        <v>42139.583333333336</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="A10" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="87">
+        <f t="shared" ref="C10:D10" si="7">AVERAGE(C2:C9)</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D10" s="87">
+        <f t="shared" si="7"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="E10" s="87">
+        <f t="shared" ref="E10" si="8">AVERAGE(E2:E9)</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F10" s="87">
+        <f t="shared" ref="F10" si="9">AVERAGE(F2:F9)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G10" s="87">
+        <f t="shared" ref="G10" si="10">AVERAGE(G2:G9)</f>
         <v>0.6</v>
       </c>
-      <c r="K10" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="L10" s="1">
-        <v>90</v>
-      </c>
-      <c r="M10" s="1">
-        <v>33</v>
-      </c>
-      <c r="N10" s="1">
-        <v>62</v>
-      </c>
-      <c r="O10" s="61">
-        <f t="shared" ref="O10:Q10" si="6">900/900</f>
-        <v>1</v>
-      </c>
-      <c r="P10" s="61">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Q10" s="61">
-        <f t="shared" si="6"/>
-        <v>1</v>
+      <c r="H10" s="87">
+        <f t="shared" ref="H10" si="11">AVERAGE(H2:H9)</f>
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="87">
+        <f t="shared" ref="I10" si="12">AVERAGE(I2:I9)</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J10" s="87">
+        <f t="shared" ref="J10" si="13">AVERAGE(J2:J9)</f>
+        <v>0.65</v>
+      </c>
+      <c r="K10" s="87">
+        <f>AVERAGE(K2:K9)</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="L10" s="87">
+        <f t="shared" ref="L10:Q10" si="14">AVERAGE(L2:L9)</f>
+        <v>218</v>
+      </c>
+      <c r="M10" s="87">
+        <f t="shared" si="14"/>
+        <v>206.625</v>
+      </c>
+      <c r="N10" s="87">
+        <f t="shared" si="14"/>
+        <v>213.875</v>
+      </c>
+      <c r="O10" s="87">
+        <f t="shared" si="14"/>
+        <v>0.93001547746628244</v>
+      </c>
+      <c r="P10" s="87">
+        <f t="shared" si="14"/>
+        <v>0.78192857302918028</v>
+      </c>
+      <c r="Q10" s="87">
+        <f t="shared" si="14"/>
+        <v>0.7775211503265117</v>
       </c>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
@@ -29131,69 +29257,69 @@
       <c r="Z10" s="18"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="57">
-        <v>42139.385416666664</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>260</v>
-      </c>
-      <c r="M11" s="1">
-        <v>215</v>
-      </c>
-      <c r="N11" s="1">
-        <v>412</v>
-      </c>
-      <c r="O11" s="61">
-        <f>658/658</f>
-        <v>1</v>
-      </c>
-      <c r="P11" s="61">
-        <f>550/658</f>
-        <v>0.83586626139817632</v>
-      </c>
-      <c r="Q11" s="61">
-        <f>516/658</f>
-        <v>0.78419452887537999</v>
-      </c>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11">
+        <f>STDEV(C2:C9)</f>
+        <v>0.21213203435596428</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:Q11" si="15">STDEV(D2:D9)</f>
+        <v>0.35456210417116729</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="15"/>
+        <v>0.2492846909516451</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="15"/>
+        <v>0.33806170189140666</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="15"/>
+        <v>0.42761798705987902</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="15"/>
+        <v>0.2618614682831909</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="15"/>
+        <v>0.28157719063467185</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="15"/>
+        <v>0.33380918415851202</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="15"/>
+        <v>0.21213203435596428</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="15"/>
+        <v>107.11142396055214</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="15"/>
+        <v>211.5439417372057</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="15"/>
+        <v>116.35344859521784</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="15"/>
+        <v>0.11526806827979891</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="15"/>
+        <v>0.2487176902754287</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="15"/>
+        <v>0.27715923097574535</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="L12" s="4"/>
@@ -29212,23 +29338,6 @@
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-    </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -46010,6 +46119,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
